--- a/model/results/mix2_ggpos_h2pos/v_sce.xlsx
+++ b/model/results/mix2_ggpos_h2pos/v_sce.xlsx
@@ -790,10 +790,10 @@
         <v>1.583461538461538</v>
       </c>
       <c r="E3" t="n">
+        <v>1.5215</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.583461538461538</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.521499999999998</v>
       </c>
       <c r="G3" t="n">
         <v>0.16</v>
@@ -921,10 +921,10 @@
         <v>1.583461538461538</v>
       </c>
       <c r="E4" t="n">
+        <v>1.5215</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.583461538461538</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.521499999999998</v>
       </c>
       <c r="G4" t="n">
         <v>0.16</v>
@@ -1052,10 +1052,10 @@
         <v>1.583461538461538</v>
       </c>
       <c r="E5" t="n">
+        <v>1.5215</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.583461538461538</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.521499999999998</v>
       </c>
       <c r="G5" t="n">
         <v>0.16</v>
@@ -1139,7 +1139,7 @@
         <v>0.494</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.494</v>
+        <v>0.4940000000000011</v>
       </c>
       <c r="AI5" t="n">
         <v>0.494</v>
@@ -1174,19 +1174,19 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
+        <v>1.583461538461538</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8674615384615383</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.171320006520044</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4475</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.8674615384615382</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.583461538461538</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9521641129839233</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.8674615384615382</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1.163499999999998</v>
       </c>
       <c r="G6" t="n">
         <v>0.16</v>
@@ -1305,19 +1305,19 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8674615384615382</v>
+        <v>0.8674615384615277</v>
       </c>
       <c r="C7" t="n">
-        <v>1.201310761088611</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1514615384615489</v>
+        <v>0.8674615384615384</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8674615384615382</v>
+        <v>0.4475</v>
       </c>
       <c r="F7" t="n">
-        <v>1.163499999999998</v>
+        <v>0.8674615384615293</v>
       </c>
       <c r="G7" t="n">
         <v>0.16</v>
@@ -1436,19 +1436,19 @@
         <v>2027</v>
       </c>
       <c r="B8" t="n">
-        <v>0.8674615384615382</v>
+        <v>0.8674615384615277</v>
       </c>
       <c r="C8" t="n">
-        <v>1.201310761088611</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1514615384615489</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.4475</v>
       </c>
       <c r="F8" t="n">
-        <v>1.163499999999998</v>
+        <v>0.8674615384615293</v>
       </c>
       <c r="G8" t="n">
         <v>0.16</v>
@@ -1567,19 +1567,19 @@
         <v>2028</v>
       </c>
       <c r="B9" t="n">
+        <v>0.8674615384615277</v>
+      </c>
+      <c r="C9" t="n">
         <v>0.1514615384615382</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.8674615384615383</v>
-      </c>
       <c r="D9" t="n">
-        <v>0.1514615384615489</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1514615384615322</v>
+        <v>0.4475</v>
       </c>
       <c r="F9" t="n">
-        <v>0.447499999999998</v>
+        <v>0.1514615384615292</v>
       </c>
       <c r="G9" t="n">
         <v>0.16</v>
@@ -1603,16 +1603,16 @@
         <v>0.01229999999999998</v>
       </c>
       <c r="N9" t="n">
+        <v>0.01229999999999373</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.01229999999999998</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.01229999999999992</v>
       </c>
       <c r="P9" t="n">
         <v>0.01229999999999998</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.01229999999999992</v>
+        <v>0.01229999999999998</v>
       </c>
       <c r="R9" t="n">
         <v>0.01229999999999998</v>
@@ -1621,7 +1621,7 @@
         <v>0.01229999999999998</v>
       </c>
       <c r="T9" t="n">
-        <v>0.01229999999999998</v>
+        <v>0.01229999999999618</v>
       </c>
       <c r="U9" t="n">
         <v>0.01229999999999998</v>
@@ -1651,13 +1651,13 @@
         <v>0.01229999999999998</v>
       </c>
       <c r="AD9" t="n">
+        <v>0.01229999999999618</v>
+      </c>
+      <c r="AE9" t="n">
         <v>0.01229999999999998</v>
       </c>
-      <c r="AE9" t="n">
-        <v>0.01229999999999992</v>
-      </c>
       <c r="AF9" t="n">
-        <v>0.01229999999999992</v>
+        <v>0.01229999999999998</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1698,19 +1698,19 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1514615384615383</v>
+        <v>0.1514615384615254</v>
       </c>
       <c r="C10" t="n">
         <v>0.1514615384615382</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1514615384615489</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1514615384615322</v>
+        <v>0.4475</v>
       </c>
       <c r="F10" t="n">
-        <v>0.447499999999998</v>
+        <v>0.1514615384615292</v>
       </c>
       <c r="G10" t="n">
         <v>0.16</v>
@@ -1734,16 +1734,16 @@
         <v>0.008199999999999985</v>
       </c>
       <c r="N10" t="n">
+        <v>0.00819999999999374</v>
+      </c>
+      <c r="O10" t="n">
         <v>0.008199999999999985</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.00819999999999993</v>
       </c>
       <c r="P10" t="n">
         <v>0.008199999999999985</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00819999999999993</v>
+        <v>0.008199999999999985</v>
       </c>
       <c r="R10" t="n">
         <v>0.008199999999999985</v>
@@ -1752,7 +1752,7 @@
         <v>0.008199999999999985</v>
       </c>
       <c r="T10" t="n">
-        <v>0.008199999999999985</v>
+        <v>0.008199999999996183</v>
       </c>
       <c r="U10" t="n">
         <v>0.008199999999999985</v>
@@ -1782,13 +1782,13 @@
         <v>0.008199999999999985</v>
       </c>
       <c r="AD10" t="n">
+        <v>0.008199999999996183</v>
+      </c>
+      <c r="AE10" t="n">
         <v>0.008199999999999985</v>
       </c>
-      <c r="AE10" t="n">
-        <v>0.00819999999999993</v>
-      </c>
       <c r="AF10" t="n">
-        <v>0.00819999999999993</v>
+        <v>0.008199999999999985</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
@@ -1829,19 +1829,19 @@
         <v>2030</v>
       </c>
       <c r="B11" t="n">
+        <v>0.1514615384615277</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1514615384615381</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.1514615384615382</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.1514615384615382</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.1514615384615541</v>
-      </c>
       <c r="E11" t="n">
-        <v>0.1514615384615322</v>
+        <v>0.4475</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4474999999999998</v>
+        <v>0.151461538461529</v>
       </c>
       <c r="G11" t="n">
         <v>0.16</v>
@@ -1960,19 +1960,19 @@
         <v>2031</v>
       </c>
       <c r="B12" t="n">
+        <v>0.1514615384615274</v>
+      </c>
+      <c r="C12" t="n">
         <v>0.1514615384615382</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.1514615384615381</v>
-      </c>
       <c r="D12" t="n">
-        <v>0.151461538461535</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1514615384615322</v>
+        <v>0.4474999999999997</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4474999999999998</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="G12" t="n">
         <v>0.16</v>
@@ -2091,19 +2091,19 @@
         <v>2032</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1514615384615382</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="C13" t="n">
         <v>0.1514615384615381</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1514615384615349</v>
+        <v>0.1514615384615381</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1514615384615322</v>
+        <v>0.4474999999999901</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4474999999999926</v>
+        <v>0.151461538461529</v>
       </c>
       <c r="G13" t="n">
         <v>0.16</v>
@@ -2222,19 +2222,19 @@
         <v>2033</v>
       </c>
       <c r="B14" t="n">
+        <v>0.1514615384615381</v>
+      </c>
+      <c r="C14" t="n">
         <v>0.1514615384615382</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
+        <v>0.1514615384615383</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4474999999999999</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.1514615384615381</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.1514615384615352</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.1514615384615322</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.4474999999999927</v>
       </c>
       <c r="G14" t="n">
         <v>0.16</v>
@@ -2353,19 +2353,19 @@
         <v>2034</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1514615384615376</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1514615384615375</v>
+        <v>0.1514615384615382</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1514615384615355</v>
+        <v>0.1514615384615276</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1514615384615322</v>
+        <v>0.4474999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.4474999999999998</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="G15" t="n">
         <v>0.16</v>
@@ -2484,19 +2484,19 @@
         <v>2035</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1514615384615383</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="C16" t="n">
+        <v>0.1514615384615275</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.1514615384615381</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.151461538461538</v>
-      </c>
       <c r="E16" t="n">
-        <v>0.1514615384615328</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="G16" t="n">
         <v>0.16</v>
@@ -2615,19 +2615,19 @@
         <v>2036</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615275</v>
       </c>
       <c r="C17" t="n">
         <v>0.1514615384615381</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1514615384615337</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1514615384615328</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="G17" t="n">
         <v>0.16</v>
@@ -2746,19 +2746,19 @@
         <v>2037</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615275</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="D18" t="n">
-        <v>0.151461538461538</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1514615384615322</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.1514615384615275</v>
       </c>
       <c r="G18" t="n">
         <v>0.16</v>
@@ -2877,19 +2877,19 @@
         <v>2038</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1514615384615382</v>
+        <v>0.1514615384615275</v>
       </c>
       <c r="C19" t="n">
+        <v>0.1514615384615275</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.1514615384615274</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.1514615384615381</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.1514615384615331</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.1514615384615328</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0.16</v>
@@ -3008,19 +3008,19 @@
         <v>2039</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1514615384615382</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="C20" t="n">
+        <v>0.1514615384615274</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.1514615384615381</v>
       </c>
-      <c r="D20" t="n">
-        <v>0.1514615384615383</v>
-      </c>
       <c r="E20" t="n">
-        <v>0.1514615384615312</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="G20" t="n">
         <v>0.16</v>
@@ -3139,19 +3139,19 @@
         <v>2040</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.1514615384615274</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1514615384615381</v>
+        <v>0.1514615384615275</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1514615384615327</v>
+        <v>0.1514615384615383</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1514615384615328</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.1514615384615275</v>
       </c>
       <c r="G21" t="n">
         <v>0.16</v>
